--- a/automatic_motif_finding_results_testingset.xlsx
+++ b/automatic_motif_finding_results_testingset.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>test_tp</t>
   </si>
@@ -80,6 +80,9 @@
     <t>hsa-miR-132-3p</t>
   </si>
   <si>
+    <t>hsa-miR-141-3p</t>
+  </si>
+  <si>
     <t>hsa-miR-193b-3p</t>
   </si>
   <si>
@@ -134,6 +137,9 @@
     <t>hsa-miR-125a-5p</t>
   </si>
   <si>
+    <t>hsa-miR-143-5p</t>
+  </si>
+  <si>
     <t>hsa-miR-181a-2-3p</t>
   </si>
   <si>
@@ -156,6 +162,21 @@
   </si>
   <si>
     <t>hsa-miR-193a-5p</t>
+  </si>
+  <si>
+    <t>hsa-miR-148a-3p</t>
+  </si>
+  <si>
+    <t>hsa-miR-15b-5p</t>
+  </si>
+  <si>
+    <t>hsa-miR-194-5p</t>
+  </si>
+  <si>
+    <t>hsa-miR-200a-3p</t>
+  </si>
+  <si>
+    <t>hsa-miR-98-5p</t>
   </si>
 </sst>
 </file>
@@ -553,10 +574,10 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C2">
         <v>4</v>
@@ -565,22 +586,22 @@
         <v>4</v>
       </c>
       <c r="E2">
-        <v>0.82</v>
+        <v>0.84</v>
       </c>
       <c r="F2">
-        <v>0.5600000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="G2">
-        <v>0.44</v>
+        <v>0.31</v>
       </c>
       <c r="H2">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="I2">
-        <v>0.74</v>
+        <v>0.79</v>
       </c>
       <c r="J2">
-        <v>0.82</v>
+        <v>0.84</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +611,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -741,10 +762,10 @@
         <v>22</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -753,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -767,13 +788,13 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -793,7 +814,7 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -804,16 +825,16 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -821,7 +842,7 @@
         <v>26</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -861,10 +882,10 @@
         <v>28</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -881,19 +902,19 @@
         <v>29</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -901,10 +922,10 @@
         <v>30</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -913,7 +934,7 @@
         <v>1</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -921,19 +942,19 @@
         <v>31</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -944,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -961,10 +982,10 @@
         <v>33</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -973,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -981,10 +1002,10 @@
         <v>34</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -993,7 +1014,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1004,13 +1025,13 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1030,10 +1051,10 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1041,10 +1062,10 @@
         <v>37</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -1053,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1067,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1081,7 +1102,7 @@
         <v>39</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -1090,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1127,13 +1148,13 @@
         <v>0</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27">
         <v>1</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1150,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -1167,13 +1188,13 @@
         <v>0</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1184,16 +1205,16 @@
         <v>0</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30">
         <v>1</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1201,10 +1222,10 @@
         <v>45</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -1224,15 +1245,155 @@
         <v>0</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32">
         <v>1</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
+        <v>52</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
+        <v>53</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
         <v>0</v>
       </c>
     </row>
